--- a/Employee_Reports21/Cristopher Cruz Q0266.xlsx
+++ b/Employee_Reports21/Cristopher Cruz Q0266.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -692,11 +692,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -738,11 +738,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>-307</v>
+        <v>-308</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
